--- a/MultiControl/bin/Debug/log/SM-N900/20161104/4d0088954e5b212d.xlsx
+++ b/MultiControl/bin/Debug/log/SM-N900/20161104/4d0088954e5b212d.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="51">
   <si>
     <t>PQAA SW</t>
   </si>
@@ -569,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1015,6 +1015,530 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4">
+        <v>42678.121157407404</v>
+      </c>
+      <c r="H4" s="1">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="4">
+        <v>42678.121967592589</v>
+      </c>
+      <c r="H5" s="1">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="4">
+        <v>42678.144074074073</v>
+      </c>
+      <c r="H6" s="1">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ6" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="4">
+        <v>42678.14739583333</v>
+      </c>
+      <c r="H7" s="1">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ7" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
